--- a/Excel/table.xlsx
+++ b/Excel/table.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nailt\Desktop\my_git\Thermal-Analysis\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0596D73-59F5-44BA-BD3E-745AB6FE31CA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2D68A-BEF8-45B7-9E52-913D824929DE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4485" activeTab="1" xr2:uid="{95032C0F-D4B9-492A-B1FE-4E53536A9692}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4485" activeTab="2" xr2:uid="{95032C0F-D4B9-492A-B1FE-4E53536A9692}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -227,6 +228,1042 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR"/>
+              <a:t>Thermal Resistance vs Fin Height</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sayfa3!$A$1:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sayfa3!$B$1:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84160000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DC5-4D17-9790-F607109DA174}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="468591512"/>
+        <c:axId val="468590200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="468591512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Height (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468590200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468590200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR"/>
+                  <a:t>Thermal Resistance (K/W)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468591512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46E26B8-842C-499D-91B0-328AA9E87277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>193964</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>62350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Resim 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D522BB65-3FCB-4D93-80DE-47A9E3BE8ED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="638175"/>
+          <a:ext cx="4804064" cy="2853175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -797,7 +1834,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="H12">
-        <f>F12/(E12*G12)</f>
+        <f t="shared" ref="H12:H17" si="0">F12/(E12*G12)</f>
         <v>1.0399999999999998E-2</v>
       </c>
     </row>
@@ -816,7 +1853,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="H13">
-        <f>F13/(E13*G13)</f>
+        <f t="shared" si="0"/>
         <v>1.1428571428571429E-2</v>
       </c>
     </row>
@@ -835,7 +1872,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="H14">
-        <f>F14/(E14*G14)</f>
+        <f t="shared" si="0"/>
         <v>3.9999999999999992E-3</v>
       </c>
     </row>
@@ -850,7 +1887,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="H15">
-        <f>F15/(E15*G15)</f>
+        <f t="shared" si="0"/>
         <v>0.26426666666666665</v>
       </c>
     </row>
@@ -865,7 +1902,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="H16">
-        <f>F16/(E16*G16)</f>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
     </row>
@@ -880,7 +1917,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="H17">
-        <f>F17/(E17*G17)</f>
+        <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
     </row>
@@ -894,8 +1931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C47A15B-4AC1-4AB0-A548-4CE39513B0A7}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,4 +2168,76 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2A0138-CF17-4002-834C-8B36F3E5547F}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>48</v>
+      </c>
+      <c r="B1">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>0.40710000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>0.5131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>0.58979999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0.69359999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0.84160000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>